--- a/data/CombinedData/CombinedData(0%).xlsx
+++ b/data/CombinedData/CombinedData(0%).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\OneDrive\Desktop\Model Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav\Desktop\Final H values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01D277B-3EE9-4AD6-AEE6-E775DAC9E1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77EB072-F58D-4E67-A4AF-4054F69D7614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New folder" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,19 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'New folder'!$A$1:$I$53</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -49,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
   <si>
     <t>Source.Name</t>
   </si>
@@ -85,6 +94,15 @@
   </si>
   <si>
     <t>H0_30.csv</t>
+  </si>
+  <si>
+    <t>ln(B/T)</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ln(G/T)</t>
   </si>
 </sst>
 </file>
@@ -126,7 +144,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -145,8 +169,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{926CFAC5-E64D-4FF7-BF36-9553F6AEF5C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
-    <queryTableFields count="9">
+  <queryTableRefresh nextId="13" unboundColumnsRight="3">
+    <queryTableFields count="12">
       <queryTableField id="1" name="Source.Name" tableColumnId="1"/>
       <queryTableField id="2" name="##Temp./°C" tableColumnId="2"/>
       <queryTableField id="3" name="Time/min" tableColumnId="3"/>
@@ -156,16 +180,19 @@
       <queryTableField id="7" name="F_alpha" tableColumnId="7"/>
       <queryTableField id="8" name="G_alpha" tableColumnId="8"/>
       <queryTableField id="9" name="lnB" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="11"/>
+      <queryTableField id="12" dataBound="0" tableColumnId="12"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{240751E6-7918-4800-9D8D-ADD7DE055017}" name="New_folder" displayName="New_folder" ref="A1:I53" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I53" xr:uid="{240751E6-7918-4800-9D8D-ADD7DE055017}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{19FE337D-FD1A-4C5D-A338-CA6B9FAA606B}" uniqueName="1" name="Source.Name" queryTableFieldId="1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{240751E6-7918-4800-9D8D-ADD7DE055017}" name="New_folder" displayName="New_folder" ref="A1:L53" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L53" xr:uid="{240751E6-7918-4800-9D8D-ADD7DE055017}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{19FE337D-FD1A-4C5D-A338-CA6B9FAA606B}" uniqueName="1" name="Source.Name" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B6FF9336-518F-443F-A6B9-B7A034302591}" uniqueName="2" name="##Temp./°C" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{CE039DEC-0981-4C1A-8C90-63AD1B541ED0}" uniqueName="3" name="Time/min" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{60D9395A-7C3C-47B1-A568-FCC3119E4D3F}" uniqueName="4" name="Mass/%" queryTableFieldId="4"/>
@@ -174,6 +201,13 @@
     <tableColumn id="7" xr3:uid="{43CB19C2-D13C-4C53-94AF-96E1352006AF}" uniqueName="7" name="F_alpha" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{C04531CB-8A4F-4001-997C-3A5530F3FF65}" uniqueName="8" name="G_alpha" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{C9DF7F58-5CEE-4A02-BC20-9D931763DCCB}" uniqueName="9" name="lnB" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{3054E078-72B0-46EC-B503-3549BB508E7D}" uniqueName="10" name="ln(B/T)" queryTableFieldId="10" dataDxfId="1">
+      <calculatedColumnFormula>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{5F009206-8E03-4B38-AA7D-C1DE9D6CA835}" uniqueName="11" name="b" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{787CEAB9-19CE-4CDE-AC3D-9430D426143D}" uniqueName="12" name="ln(G/T)" queryTableFieldId="12" dataDxfId="0">
+      <calculatedColumnFormula>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -442,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E3F876-E05D-46E2-9623-85752B9C26C8}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +494,7 @@
     <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,13 +522,22 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>257.23800999999997</v>
+        <v>530.23801000000003</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -517,13 +560,24 @@
       <c r="I2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.244066869433262</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-18.73379227821793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>419.03298999999998</v>
+        <v>692.03298999999993</v>
       </c>
       <c r="C3">
         <v>25.5</v>
@@ -546,13 +600,24 @@
       <c r="I3">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.77668216278942</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-17.701784739857068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>468.58199999999999</v>
+        <v>741.58199999999999</v>
       </c>
       <c r="C4">
         <v>30.5</v>
@@ -575,13 +640,24 @@
       <c r="I4">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.914986391230793</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-17.000725970093754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>488.13101</v>
+        <v>761.13101000000006</v>
       </c>
       <c r="C5">
         <v>32.5</v>
@@ -604,13 +680,24 @@
       <c r="I5">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.967025903213628</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-16.538124513045549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>507.77499</v>
+        <v>780.77499</v>
       </c>
       <c r="C6">
         <v>34.5</v>
@@ -633,13 +720,24 @@
       <c r="I6">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.017988913677696</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-16.052419329479783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>522.67200000000003</v>
+        <v>795.67200000000003</v>
       </c>
       <c r="C7">
         <v>36</v>
@@ -662,13 +760,24 @@
       <c r="I7">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.055788988251356</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.722514969463303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>552.85100999999997</v>
+        <v>825.85100999999997</v>
       </c>
       <c r="C8">
         <v>39</v>
@@ -691,13 +800,24 @@
       <c r="I8">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.13024367090342</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.272931157821438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>583.27099999999996</v>
+        <v>856.27099999999996</v>
       </c>
       <c r="C9">
         <v>42</v>
@@ -720,13 +840,24 @@
       <c r="I9">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.202588736652222</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.122949550197427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>723.08698000000004</v>
+        <v>996.08698000000004</v>
       </c>
       <c r="C10">
         <v>56</v>
@@ -749,13 +880,24 @@
       <c r="I10">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.505084073183724</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.191228403162212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>917.99597000000006</v>
+        <v>1190.9959699999999</v>
       </c>
       <c r="C11">
         <v>75.5</v>
@@ -778,13 +920,24 @@
       <c r="I11">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.862505278282772</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.361791313133978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>1013.20898</v>
+        <v>1286.2089799999999</v>
       </c>
       <c r="C12">
         <v>85</v>
@@ -807,13 +960,24 @@
       <c r="I12">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-12.01632369797248</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.355474119233238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>1288.7309600000001</v>
+        <v>1561.7309600000001</v>
       </c>
       <c r="C13">
         <v>112.5</v>
@@ -836,13 +1000,24 @@
       <c r="I13">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-12.404515056700886</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.567450136703853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14">
-        <v>1303.6999499999999</v>
+        <v>1576.6999499999999</v>
       </c>
       <c r="C14">
         <v>114</v>
@@ -865,13 +1040,24 @@
       <c r="I14">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-12.423593512069219</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.446582705290435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15">
-        <v>1318.6629600000001</v>
+        <v>1591.6629600000001</v>
       </c>
       <c r="C15">
         <v>115.5</v>
@@ -894,13 +1080,24 @@
       <c r="I15">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-12.442484177902349</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.172298456667416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16">
-        <v>1329.95353</v>
+        <v>1602.95353</v>
       </c>
       <c r="C16">
         <v>117</v>
@@ -923,13 +1120,24 @@
       <c r="I16">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-12.456621232594889</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-14.759206325588936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17">
-        <v>312.32900999999998</v>
+        <v>585.32900999999993</v>
       </c>
       <c r="C17">
         <v>5.5</v>
@@ -952,13 +1160,24 @@
       <c r="I17">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-9.7486159252357911</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-18.801044840835381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18">
-        <v>450.64098999999999</v>
+        <v>723.64098999999999</v>
       </c>
       <c r="C18">
         <v>11.5</v>
@@ -981,13 +1200,24 @@
       <c r="I18">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.172858524917412</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-17.759611265570058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19">
-        <v>487.98901000000001</v>
+        <v>760.98901000000001</v>
       </c>
       <c r="C19">
         <v>13.5</v>
@@ -1010,13 +1240,24 @@
       <c r="I19">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.2735055589122</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-17.064037736749807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20">
-        <v>506.96701000000002</v>
+        <v>779.96701000000007</v>
       </c>
       <c r="C20">
         <v>14.5</v>
@@ -1039,13 +1280,24 @@
       <c r="I20">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.322770974280788</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-16.61553549802618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21">
-        <v>526.14301</v>
+        <v>799.14301</v>
       </c>
       <c r="C21">
         <v>15.5</v>
@@ -1068,13 +1320,24 @@
       <c r="I21">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.371347558411891</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-16.168013824435125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22">
-        <v>545.46600000000001</v>
+        <v>818.46600000000001</v>
       </c>
       <c r="C22">
         <v>16.5</v>
@@ -1097,13 +1360,24 @@
       <c r="I22">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.419131439540131</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.78022506226052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23">
-        <v>564.99199999999996</v>
+        <v>837.99199999999996</v>
       </c>
       <c r="C23">
         <v>17.5</v>
@@ -1126,13 +1400,24 @@
       <c r="I23">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.466284834240279</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.505292743651044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24">
-        <v>584.75800000000004</v>
+        <v>857.75800000000004</v>
       </c>
       <c r="C24">
         <v>18.5</v>
@@ -1155,13 +1440,24 @@
       <c r="I24">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.512911743289944</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.355354311605558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25">
-        <v>673.87401999999997</v>
+        <v>946.87401999999997</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -1184,13 +1480,24 @@
       <c r="I25">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.71059983387341</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.302804684251035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
-        <v>842.28698999999995</v>
+        <v>1115.2869900000001</v>
       </c>
       <c r="C26">
         <v>31.5</v>
@@ -1213,13 +1520,24 @@
       <c r="I26">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.038001808265189</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.43997694583458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
-        <v>992.16900999999996</v>
+        <v>1265.1690100000001</v>
       </c>
       <c r="C27">
         <v>39</v>
@@ -1242,13 +1560,24 @@
       <c r="I27">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.290189720406779</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.491178064654228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
-        <v>1272.9830300000001</v>
+        <v>1545.9830300000001</v>
       </c>
       <c r="C28">
         <v>53</v>
@@ -1271,13 +1600,24 @@
       <c r="I28">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.691098231192052</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.725142977282552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
-        <v>1322.5310099999999</v>
+        <v>1595.5310099999999</v>
       </c>
       <c r="C29">
         <v>55.5</v>
@@ -1300,13 +1640,24 @@
       <c r="I29">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.75419148933187</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.415529821955692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
-        <v>1331.61499</v>
+        <v>1604.61499</v>
       </c>
       <c r="C30">
         <v>56</v>
@@ -1329,13 +1680,24 @@
       <c r="I30">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.76554597678197</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.254574998120866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31">
-        <v>1331.125</v>
+        <v>1604.125</v>
       </c>
       <c r="C31">
         <v>56.5</v>
@@ -1358,13 +1720,24 @@
       <c r="I31">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.764935157575259</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.008295517183528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32">
-        <v>1320.8620599999999</v>
+        <v>1593.8620599999999</v>
       </c>
       <c r="C32">
         <v>57</v>
@@ -1387,13 +1760,24 @@
       <c r="I32">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.752098363629639</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-14.83952843978606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
       <c r="B33">
-        <v>1303.0479700000001</v>
+        <v>1576.0479700000001</v>
       </c>
       <c r="C33">
         <v>57.5</v>
@@ -1416,13 +1800,24 @@
       <c r="I33">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.729619141989733</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-14.730626077144793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34">
-        <v>295.52600000000001</v>
+        <v>568.52600000000007</v>
       </c>
       <c r="C34">
         <v>3.25</v>
@@ -1445,13 +1840,24 @@
       <c r="I34">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-9.2848967114049401</v>
+      </c>
+      <c r="K34">
+        <v>30</v>
+      </c>
+      <c r="L34">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-18.820492267028026</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35">
-        <v>455.53201000000001</v>
+        <v>728.53201000000001</v>
       </c>
       <c r="C35">
         <v>6.5</v>
@@ -1474,13 +1880,24 @@
       <c r="I35">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-9.7808657468815756</v>
+      </c>
+      <c r="K35">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-17.812801205066197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36">
-        <v>496.95098999999999</v>
+        <v>769.95099000000005</v>
       </c>
       <c r="C36">
         <v>7.75</v>
@@ -1503,13 +1920,24 @@
       <c r="I36">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-9.8914563452805933</v>
+      </c>
+      <c r="K36">
+        <v>30</v>
+      </c>
+      <c r="L36">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-17.095272299379797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
       <c r="B37">
-        <v>518.60302999999999</v>
+        <v>791.60302999999999</v>
       </c>
       <c r="C37">
         <v>8.5</v>
@@ -1532,13 +1960,24 @@
       <c r="I37">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-9.9469227011615207</v>
+      </c>
+      <c r="K37">
+        <v>30</v>
+      </c>
+      <c r="L37">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-16.571296617500821</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
       <c r="B38">
-        <v>539.24199999999996</v>
+        <v>812.24199999999996</v>
       </c>
       <c r="C38">
         <v>9.25</v>
@@ -1561,13 +2000,24 @@
       <c r="I38">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-9.9983992689705286</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="L38">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-16.110956472492632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39">
-        <v>552.91699000000006</v>
+        <v>825.91699000000006</v>
       </c>
       <c r="C39">
         <v>9.75</v>
@@ -1590,13 +2040,24 @@
       <c r="I39">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.031791162543527</v>
+      </c>
+      <c r="K39">
+        <v>30</v>
+      </c>
+      <c r="L39">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.851634879742969</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40">
-        <v>573.81701999999996</v>
+        <v>846.81701999999996</v>
       </c>
       <c r="C40">
         <v>10.5</v>
@@ -1619,13 +2080,24 @@
       <c r="I40">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.081771894849247</v>
+      </c>
+      <c r="K40">
+        <v>30</v>
+      </c>
+      <c r="L40">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.567625527182855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41">
-        <v>602.99297999999999</v>
+        <v>875.99297999999999</v>
       </c>
       <c r="C41">
         <v>11.5</v>
@@ -1648,13 +2120,24 @@
       <c r="I41">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.149518772749147</v>
+      </c>
+      <c r="K41">
+        <v>30</v>
+      </c>
+      <c r="L41">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.376987245507953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42">
-        <v>703.00702000000001</v>
+        <v>976.00702000000001</v>
       </c>
       <c r="C42">
         <v>14.75</v>
@@ -1677,13 +2160,24 @@
       <c r="I42">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.365742176358198</v>
+      </c>
+      <c r="K42">
+        <v>30</v>
+      </c>
+      <c r="L42">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.366898215886833</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43">
-        <v>893.46198000000004</v>
+        <v>1166.46198</v>
       </c>
       <c r="C43">
         <v>21.25</v>
@@ -1706,13 +2200,24 @@
       <c r="I43">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.722263613743264</v>
+      </c>
+      <c r="K43">
+        <v>30</v>
+      </c>
+      <c r="L43">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.5114150570666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44">
-        <v>1042.36096</v>
+        <v>1315.36096</v>
       </c>
       <c r="C44">
         <v>26.25</v>
@@ -1735,13 +2240,24 @@
       <c r="I44">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-10.962535420821396</v>
+      </c>
+      <c r="K44">
+        <v>30</v>
+      </c>
+      <c r="L44">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.557833949017962</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45">
-        <v>1297.59998</v>
+        <v>1570.59998</v>
       </c>
       <c r="C45">
         <v>34.75</v>
@@ -1764,13 +2280,24 @@
       <c r="I45">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.317228574751418</v>
+      </c>
+      <c r="K45">
+        <v>30</v>
+      </c>
+      <c r="L45">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.725443257154961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46">
-        <v>1312.4139399999999</v>
+        <v>1585.4139399999999</v>
       </c>
       <c r="C46">
         <v>35.25</v>
@@ -1793,13 +2320,24 @@
       <c r="I46">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.336004244534033</v>
+      </c>
+      <c r="K46">
+        <v>30</v>
+      </c>
+      <c r="L46">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.61489481260341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47">
-        <v>1327.1230499999999</v>
+        <v>1600.1230499999999</v>
       </c>
       <c r="C47">
         <v>35.75</v>
@@ -1822,13 +2360,24 @@
       <c r="I47">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.354474241379322</v>
+      </c>
+      <c r="K47">
+        <v>30</v>
+      </c>
+      <c r="L47">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.449124246244278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48">
-        <v>1333.4517900000001</v>
+        <v>1606.4517900000001</v>
       </c>
       <c r="C48">
         <v>36</v>
@@ -1851,13 +2400,24 @@
       <c r="I48">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.362368955874956</v>
+      </c>
+      <c r="K48">
+        <v>30</v>
+      </c>
+      <c r="L48">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.350693639666648</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49">
-        <v>1336.65409</v>
+        <v>1609.65409</v>
       </c>
       <c r="C49">
         <v>36.25</v>
@@ -1880,13 +2440,24 @@
       <c r="I49">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.366351786263973</v>
+      </c>
+      <c r="K49">
+        <v>30</v>
+      </c>
+      <c r="L49">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.219300512997547</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
       <c r="B50">
-        <v>1336.71201</v>
+        <v>1609.71201</v>
       </c>
       <c r="C50">
         <v>36.5</v>
@@ -1909,13 +2480,24 @@
       <c r="I50">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.366423750741708</v>
+      </c>
+      <c r="K50">
+        <v>30</v>
+      </c>
+      <c r="L50">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-15.093047927925072</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
       <c r="B51">
-        <v>1329.41716</v>
+        <v>1602.41716</v>
       </c>
       <c r="C51">
         <v>37</v>
@@ -1938,13 +2520,24 @@
       <c r="I51">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.357339604799572</v>
+      </c>
+      <c r="K51">
+        <v>30</v>
+      </c>
+      <c r="L51">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-14.909585349287877</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
       <c r="B52">
-        <v>1322.5997600000001</v>
+        <v>1595.5997600000001</v>
       </c>
       <c r="C52">
         <v>37.25</v>
@@ -1967,13 +2560,24 @@
       <c r="I52">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.34881255757305</v>
+      </c>
+      <c r="K52">
+        <v>30</v>
+      </c>
+      <c r="L52">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-14.843233920366041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
       <c r="B53">
-        <v>1291.88149</v>
+        <v>1564.88149</v>
       </c>
       <c r="C53">
         <v>38</v>
@@ -1995,6 +2599,17 @@
       </c>
       <c r="I53">
         <v>3.4</v>
+      </c>
+      <c r="J53">
+        <f>LN(New_folder[[#This Row],[b]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-11.309933368072517</v>
+      </c>
+      <c r="K53">
+        <v>30</v>
+      </c>
+      <c r="L53">
+        <f>LN(New_folder[[#This Row],[G_alpha]]/(New_folder[[#This Row],['#'#Temp./°C]]*New_folder[[#This Row],['#'#Temp./°C]]))</f>
+        <v>-14.714141520559933</v>
       </c>
     </row>
   </sheetData>
